--- a/Prog-poly/Tabuleiro/Monopoly_pronto_07.xlsx
+++ b/Prog-poly/Tabuleiro/Monopoly_pronto_07.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="46" documentId="113_{BF1F4AE4-A9CF-4B73-A30F-EF4D4CF74751}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D324785B-C807-4C33-B14D-00A00B14D3C2}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="113_{BF1F4AE4-A9CF-4B73-A30F-EF4D4CF74751}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{16262E7B-7AF0-4EE7-8B0A-A0F9ABEF757C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABULEIRO SEM LOGOS" sheetId="7" r:id="rId1"/>
@@ -15,20 +15,12 @@
     <sheet name="SORTE" sheetId="6" r:id="rId5"/>
     <sheet name="REVES" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="111">
   <si>
     <t>IMPOSTO DE RENDA</t>
   </si>
@@ -358,6 +350,12 @@
   </si>
   <si>
     <t>Computadores necessários para o projeto não serão entregues no prazo programado, causando atrasos e prejuízo pague 40.</t>
+  </si>
+  <si>
+    <t>Pagar 200 ou 10%</t>
+  </si>
+  <si>
+    <t>EMPRESA DE OPERADORES (OU ||, E &amp;&amp;, ! NEGAÇÃO)</t>
   </si>
 </sst>
 </file>
@@ -893,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1128,210 +1126,210 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1371,26 +1369,86 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1398,65 +1456,11 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1470,12 +1474,6 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1487,6 +1485,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4409,6 +4413,67 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190791</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59823</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>402722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57982A5E-45D6-4707-B906-B8A9ECA2A53A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4381791" y="5247984"/>
+          <a:ext cx="1088232" cy="193463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5762,22 +5827,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ECBA84-BC6F-4CCD-8672-47651039D42D}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{41770D71-B389-53C7-9B99-E8DCA5FD85D2}">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.82421875" customWidth="1"/>
-    <col min="3" max="3" width="11.43359375" customWidth="1"/>
-    <col min="4" max="5" width="5.6484375" customWidth="1"/>
-    <col min="6" max="14" width="18.16015625" customWidth="1"/>
-    <col min="15" max="16" width="5.6484375" customWidth="1"/>
-    <col min="17" max="17" width="11.43359375" customWidth="1"/>
-    <col min="18" max="19" width="2.82421875" customWidth="1"/>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="19" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5798,14 +5863,14 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
       <c r="F2" s="5">
         <v>220</v>
       </c>
@@ -5831,80 +5896,80 @@
       <c r="N2" s="1">
         <v>280</v>
       </c>
-      <c r="O2" s="120" t="s">
+      <c r="O2" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="4"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="88" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="127" t="s">
         <v>80</v>
       </c>
       <c r="J3" s="21"/>
-      <c r="K3" s="88" t="s">
+      <c r="K3" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="127" t="s">
         <v>75</v>
       </c>
       <c r="M3" s="24"/>
-      <c r="N3" s="88" t="s">
+      <c r="N3" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="95" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="98" t="s">
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="89"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="125"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="151"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145"/>
       <c r="F5" s="71" t="s">
         <v>77</v>
       </c>
@@ -5917,24 +5982,24 @@
       <c r="I5" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="133"/>
       <c r="K5" s="40" t="s">
         <v>64</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="99"/>
+      <c r="M5" s="136"/>
       <c r="N5" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="126"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="128"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="154"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13">
         <v>200</v>
@@ -5958,80 +6023,80 @@
       <c r="O6" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="102" t="s">
+      <c r="P6" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="Q6" s="103"/>
+      <c r="Q6" s="121"/>
       <c r="R6" s="16">
         <v>300</v>
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14">
         <v>180</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="105"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="68" t="s">
         <v>97</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="107"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="119"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
       <c r="N7" s="9"/>
       <c r="O7" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="109" t="s">
+      <c r="P7" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="Q7" s="110"/>
+      <c r="Q7" s="103"/>
       <c r="R7" s="17">
         <v>300</v>
       </c>
       <c r="S7" s="30"/>
     </row>
-    <row r="8" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="85"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="45" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="97"/>
+      <c r="H8" s="134"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="9"/>
       <c r="O8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="94" t="s">
+      <c r="P8" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="94"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="17"/>
       <c r="S8" s="30"/>
     </row>
-    <row r="9" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="85"/>
       <c r="B9" s="13">
         <v>180</v>
@@ -6044,58 +6109,58 @@
         <v>96</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="129" t="s">
+      <c r="G9" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
       <c r="N9" s="9"/>
       <c r="O9" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="P9" s="109" t="s">
+      <c r="P9" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="110"/>
+      <c r="Q9" s="103"/>
       <c r="R9" s="17">
         <v>320</v>
       </c>
       <c r="S9" s="30"/>
     </row>
-    <row r="10" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="15">
         <v>200</v>
       </c>
       <c r="C10" s="84"/>
-      <c r="D10" s="130" t="s">
+      <c r="D10" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="131"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="132" t="s">
+      <c r="O10" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="133"/>
+      <c r="P10" s="126"/>
       <c r="Q10" s="75"/>
       <c r="R10" s="18">
         <v>200</v>
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="13">
         <v>160</v>
@@ -6113,22 +6178,22 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="134" t="s">
+      <c r="L11" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="134"/>
+      <c r="M11" s="116"/>
       <c r="N11" s="9"/>
       <c r="O11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="135" t="s">
+      <c r="P11" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="135"/>
+      <c r="Q11" s="117"/>
       <c r="R11" s="18"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="13">
         <v>140</v>
@@ -6146,31 +6211,31 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="107"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="119"/>
       <c r="N12" s="9"/>
       <c r="O12" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="P12" s="102" t="s">
+      <c r="P12" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="Q12" s="103"/>
+      <c r="Q12" s="121"/>
       <c r="R12" s="29">
         <v>350</v>
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="13">
         <v>150</v>
       </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="145" t="s">
+      <c r="D13" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="146"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -6183,14 +6248,14 @@
       <c r="O13" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
       <c r="R13" s="17">
         <v>120</v>
       </c>
       <c r="S13" s="30"/>
     </row>
-    <row r="14" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="13">
         <v>140</v>
@@ -6214,23 +6279,23 @@
       <c r="O14" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="109" t="s">
+      <c r="P14" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="Q14" s="110"/>
+      <c r="Q14" s="103"/>
       <c r="R14" s="17">
         <v>400</v>
       </c>
       <c r="S14" s="30"/>
     </row>
-    <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="150"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="42" t="s">
         <v>68</v>
       </c>
@@ -6246,7 +6311,7 @@
       <c r="J15" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="151" t="s">
+      <c r="K15" s="107" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="43" t="s">
@@ -6258,17 +6323,17 @@
       <c r="N15" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="114" t="s">
+      <c r="O15" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="116"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="111"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="50"/>
@@ -6280,60 +6345,60 @@
       <c r="G16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="154" t="s">
+      <c r="H16" s="114" t="s">
         <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="155"/>
-      <c r="K16" s="95"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="108"/>
       <c r="L16" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="136" t="s">
+      <c r="M16" s="88" t="s">
         <v>1</v>
       </c>
       <c r="N16" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="114"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="116"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="111"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4"/>
-      <c r="B17" s="152"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
       <c r="F17" s="49"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="154"/>
+      <c r="H17" s="114"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="155"/>
+      <c r="J17" s="115"/>
       <c r="K17" s="83" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="L17" s="28"/>
-      <c r="M17" s="136"/>
+      <c r="M17" s="88"/>
       <c r="N17" s="28"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="138"/>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="139"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="91"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="143" t="s">
+      <c r="B18" s="113"/>
+      <c r="C18" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="144"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="2">
         <v>100</v>
       </c>
@@ -6355,13 +6420,13 @@
       <c r="N18" s="55">
         <v>60</v>
       </c>
-      <c r="O18" s="140"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="142"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="94"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6385,30 +6450,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="45">
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="O17:R18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="O15:R16"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:M10"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="B8:D8"/>
@@ -6425,11 +6471,30 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="B2:E5"/>
     <mergeCell ref="O2:R5"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:M10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="O17:R18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="O15:R16"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="J16:J17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
@@ -6442,22 +6507,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView topLeftCell="G20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView topLeftCell="G20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.82421875" customWidth="1"/>
-    <col min="3" max="3" width="11.43359375" customWidth="1"/>
-    <col min="4" max="5" width="5.6484375" customWidth="1"/>
-    <col min="6" max="14" width="18.16015625" customWidth="1"/>
-    <col min="15" max="16" width="5.6484375" customWidth="1"/>
-    <col min="17" max="17" width="11.43359375" customWidth="1"/>
-    <col min="18" max="19" width="2.82421875" customWidth="1"/>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="19" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -6478,14 +6543,14 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
       <c r="F2" s="5">
         <v>220</v>
       </c>
@@ -6511,80 +6576,80 @@
       <c r="N2" s="1">
         <v>280</v>
       </c>
-      <c r="O2" s="120" t="s">
+      <c r="O2" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="4"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="88" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="127" t="s">
         <v>80</v>
       </c>
       <c r="J3" s="21"/>
-      <c r="K3" s="88" t="s">
+      <c r="K3" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="127" t="s">
         <v>75</v>
       </c>
       <c r="M3" s="24"/>
-      <c r="N3" s="88" t="s">
+      <c r="N3" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="95" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="98" t="s">
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="89"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="125"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="151"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145"/>
       <c r="F5" s="71" t="s">
         <v>77</v>
       </c>
@@ -6597,24 +6662,24 @@
       <c r="I5" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="133"/>
       <c r="K5" s="40" t="s">
         <v>64</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="99"/>
+      <c r="M5" s="136"/>
       <c r="N5" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="126"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="128"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="154"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13">
         <v>200</v>
@@ -6638,16 +6703,16 @@
       <c r="O6" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="109" t="s">
+      <c r="P6" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="Q6" s="110"/>
+      <c r="Q6" s="103"/>
       <c r="R6" s="16">
         <v>300</v>
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14">
         <v>180</v>
@@ -6664,29 +6729,29 @@
       <c r="H7" s="164"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
       <c r="N7" s="9"/>
       <c r="O7" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="109" t="s">
+      <c r="P7" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="110"/>
+      <c r="Q7" s="103"/>
       <c r="R7" s="16">
         <v>300</v>
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="45" t="s">
         <v>26</v>
       </c>
@@ -6695,42 +6760,42 @@
       <c r="H8" s="163"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="9"/>
       <c r="O8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="94" t="s">
+      <c r="P8" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="94"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="17"/>
       <c r="S8" s="30"/>
     </row>
-    <row r="9" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="19">
         <v>180</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="105"/>
+      <c r="D9" s="138"/>
       <c r="E9" s="68" t="s">
         <v>96</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="129" t="s">
+      <c r="G9" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
       <c r="N9" s="9"/>
       <c r="O9" s="69" t="s">
         <v>86</v>
@@ -6744,7 +6809,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="13">
         <v>200</v>
@@ -6755,13 +6820,13 @@
       </c>
       <c r="E10" s="158"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
       <c r="N10" s="9"/>
       <c r="O10" s="165" t="s">
         <v>14</v>
@@ -6773,15 +6838,15 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="15">
         <v>160</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="105"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="87" t="s">
         <v>63</v>
       </c>
@@ -6799,22 +6864,22 @@
       <c r="O11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="135" t="s">
+      <c r="P11" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="135"/>
+      <c r="Q11" s="117"/>
       <c r="R11" s="18"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="15">
         <v>140</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="105"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="87" t="s">
         <v>63</v>
       </c>
@@ -6824,31 +6889,31 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="107"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="119"/>
       <c r="N12" s="9"/>
       <c r="O12" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="P12" s="109" t="s">
+      <c r="P12" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="Q12" s="110"/>
+      <c r="Q12" s="103"/>
       <c r="R12" s="18">
         <v>350</v>
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="13">
         <v>150</v>
       </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="145" t="s">
+      <c r="D13" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="146"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -6861,22 +6926,22 @@
       <c r="O13" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
       <c r="R13" s="18">
         <v>120</v>
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="19">
         <v>140</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="105"/>
+      <c r="D14" s="138"/>
       <c r="E14" s="48" t="s">
         <v>68</v>
       </c>
@@ -6892,23 +6957,23 @@
       <c r="O14" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="109" t="s">
+      <c r="P14" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="Q14" s="110"/>
+      <c r="Q14" s="103"/>
       <c r="R14" s="18">
         <v>400</v>
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="150"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="42" t="s">
         <v>68</v>
       </c>
@@ -6936,17 +7001,17 @@
       <c r="N15" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="111" t="s">
+      <c r="O15" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="113"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="141"/>
+      <c r="R15" s="142"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="50"/>
@@ -6958,7 +7023,7 @@
       <c r="G16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="154" t="s">
+      <c r="H16" s="114" t="s">
         <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
@@ -6975,21 +7040,21 @@
       <c r="N16" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="114"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="116"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="111"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4"/>
-      <c r="B17" s="152"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
       <c r="F17" s="49"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="154"/>
+      <c r="H17" s="114"/>
       <c r="I17" s="25"/>
       <c r="J17" s="156"/>
       <c r="K17" s="11" t="s">
@@ -6998,20 +7063,20 @@
       <c r="L17" s="28"/>
       <c r="M17" s="161"/>
       <c r="N17" s="28"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="138"/>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="139"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="91"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="143" t="s">
+      <c r="B18" s="113"/>
+      <c r="C18" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="144"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="2">
         <v>100</v>
       </c>
@@ -7033,13 +7098,13 @@
       <c r="N18" s="55">
         <v>60</v>
       </c>
-      <c r="O18" s="140"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="142"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="94"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -7060,7 +7125,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -7084,35 +7149,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="45">
-    <mergeCell ref="B2:E5"/>
-    <mergeCell ref="G9:M10"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="O2:R5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O15:R16"/>
-    <mergeCell ref="O17:R18"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J16:J17"/>
@@ -7129,6 +7165,35 @@
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="K15:K16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O15:R16"/>
+    <mergeCell ref="O17:R18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="O2:R5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="G9:M10"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="42" fitToWidth="0" orientation="landscape" r:id="rId1"/>
@@ -7140,51 +7205,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.29296875" customWidth="1"/>
-    <col min="2" max="2" width="4.03515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.29296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.03515625" customWidth="1"/>
-    <col min="7" max="7" width="18.29296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.03515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="190" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="185"/>
+      <c r="B1" s="191"/>
       <c r="C1" s="66"/>
-      <c r="D1" s="184" t="s">
+      <c r="D1" s="190" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="185"/>
+      <c r="E1" s="191"/>
       <c r="F1" s="66"/>
-      <c r="G1" s="184" t="s">
+      <c r="G1" s="190" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="185"/>
-    </row>
-    <row r="2" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="182" t="s">
+      <c r="H1" s="191"/>
+    </row>
+    <row r="2" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="D2" s="182" t="s">
+      <c r="B2" s="172"/>
+      <c r="D2" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="183"/>
-      <c r="G2" s="182" t="s">
+      <c r="E2" s="172"/>
+      <c r="G2" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="183"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="172"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
@@ -7204,7 +7269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
@@ -7227,7 +7292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
@@ -7250,7 +7315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
@@ -7273,7 +7338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>10</v>
       </c>
@@ -7296,7 +7361,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>11</v>
       </c>
@@ -7319,7 +7384,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>12</v>
       </c>
@@ -7339,7 +7404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>13</v>
       </c>
@@ -7362,7 +7427,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
@@ -7370,36 +7435,36 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="184" t="s">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="190" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="185"/>
-      <c r="D12" s="186" t="s">
+      <c r="B12" s="191"/>
+      <c r="D12" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="187"/>
+      <c r="E12" s="193"/>
       <c r="F12" s="66"/>
-      <c r="G12" s="186" t="s">
+      <c r="G12" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="187"/>
-    </row>
-    <row r="13" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="182" t="s">
+      <c r="H12" s="193"/>
+    </row>
+    <row r="13" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="183"/>
-      <c r="D13" s="182" t="s">
+      <c r="B13" s="172"/>
+      <c r="D13" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="183"/>
-      <c r="G13" s="182" t="s">
+      <c r="E13" s="172"/>
+      <c r="G13" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="183"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="172"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>6</v>
       </c>
@@ -7419,7 +7484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>7</v>
       </c>
@@ -7442,7 +7507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>8</v>
       </c>
@@ -7465,7 +7530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>9</v>
       </c>
@@ -7488,7 +7553,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>10</v>
       </c>
@@ -7511,7 +7576,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>11</v>
       </c>
@@ -7534,7 +7599,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
@@ -7554,7 +7619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
         <v>13</v>
       </c>
@@ -7577,7 +7642,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="D22" s="26"/>
@@ -7585,37 +7650,37 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="178" t="s">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="194" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="179"/>
+      <c r="B23" s="195"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="178" t="s">
+      <c r="D23" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="179"/>
+      <c r="E23" s="195"/>
       <c r="F23" s="66"/>
-      <c r="G23" s="180" t="s">
+      <c r="G23" s="184" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="181"/>
-    </row>
-    <row r="24" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182" t="s">
+      <c r="H23" s="185"/>
+    </row>
+    <row r="24" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="183"/>
-      <c r="D24" s="182" t="s">
+      <c r="B24" s="172"/>
+      <c r="D24" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="183"/>
-      <c r="G24" s="182" t="s">
+      <c r="E24" s="172"/>
+      <c r="G24" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="183"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H24" s="209"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>6</v>
       </c>
@@ -7635,7 +7700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>7</v>
       </c>
@@ -7658,7 +7723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>8</v>
       </c>
@@ -7681,7 +7746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>9</v>
       </c>
@@ -7704,7 +7769,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>10</v>
       </c>
@@ -7727,7 +7792,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>11</v>
       </c>
@@ -7750,7 +7815,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>12</v>
       </c>
@@ -7770,7 +7835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
         <v>13</v>
       </c>
@@ -7793,36 +7858,36 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="180" t="s">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="184" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="181"/>
-      <c r="D34" s="188" t="s">
+      <c r="B34" s="185"/>
+      <c r="D34" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="189"/>
-      <c r="G34" s="188" t="s">
+      <c r="E34" s="187"/>
+      <c r="G34" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="189"/>
-    </row>
-    <row r="35" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="182" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="183"/>
-      <c r="D35" s="182" t="s">
+      <c r="H34" s="187"/>
+    </row>
+    <row r="35" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="171" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="172"/>
+      <c r="D35" s="171" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="183"/>
-      <c r="G35" s="182" t="s">
+      <c r="E35" s="172"/>
+      <c r="G35" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="183"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="172"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>6</v>
       </c>
@@ -7842,7 +7907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>7</v>
       </c>
@@ -7865,7 +7930,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>8</v>
       </c>
@@ -7888,7 +7953,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>9</v>
       </c>
@@ -7911,7 +7976,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>10</v>
       </c>
@@ -7934,7 +7999,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>11</v>
       </c>
@@ -7957,7 +8022,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
         <v>12</v>
       </c>
@@ -7977,7 +8042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
         <v>13</v>
       </c>
@@ -8000,37 +8065,37 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="188" t="s">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="189"/>
+      <c r="B44" s="187"/>
       <c r="C44" s="56"/>
-      <c r="D44" s="190" t="s">
+      <c r="D44" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="191"/>
+      <c r="E44" s="189"/>
       <c r="F44" s="56"/>
-      <c r="G44" s="190" t="s">
+      <c r="G44" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="H44" s="191"/>
-    </row>
-    <row r="45" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="182" t="s">
+      <c r="H44" s="189"/>
+    </row>
+    <row r="45" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="183"/>
-      <c r="D45" s="182" t="s">
+      <c r="B45" s="172"/>
+      <c r="D45" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="183"/>
-      <c r="G45" s="182" t="s">
+      <c r="E45" s="172"/>
+      <c r="G45" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="H45" s="183"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H45" s="172"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>6</v>
       </c>
@@ -8050,7 +8115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>7</v>
       </c>
@@ -8073,7 +8138,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>8</v>
       </c>
@@ -8096,7 +8161,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>9</v>
       </c>
@@ -8119,7 +8184,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>10</v>
       </c>
@@ -8142,7 +8207,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
         <v>11</v>
       </c>
@@ -8165,7 +8230,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
         <v>12</v>
       </c>
@@ -8185,7 +8250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="36" t="s">
         <v>13</v>
       </c>
@@ -8208,7 +8273,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="D54" s="26"/>
@@ -8216,37 +8281,37 @@
       <c r="G54" s="26"/>
       <c r="H54" s="26"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="196" t="s">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="197"/>
+      <c r="B55" s="170"/>
       <c r="C55" s="56"/>
-      <c r="D55" s="196" t="s">
+      <c r="D55" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="197"/>
+      <c r="E55" s="170"/>
       <c r="F55" s="56"/>
-      <c r="G55" s="196" t="s">
+      <c r="G55" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="H55" s="197"/>
-    </row>
-    <row r="56" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="182" t="s">
+      <c r="H55" s="170"/>
+    </row>
+    <row r="56" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="B56" s="183"/>
-      <c r="D56" s="182" t="s">
+      <c r="B56" s="172"/>
+      <c r="D56" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="183"/>
-      <c r="G56" s="182" t="s">
+      <c r="E56" s="172"/>
+      <c r="G56" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="H56" s="183"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H56" s="172"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>6</v>
       </c>
@@ -8266,7 +8331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>7</v>
       </c>
@@ -8289,7 +8354,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>8</v>
       </c>
@@ -8312,7 +8377,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>9</v>
       </c>
@@ -8335,7 +8400,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>10</v>
       </c>
@@ -8358,7 +8423,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
         <v>11</v>
       </c>
@@ -8381,7 +8446,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
         <v>12</v>
       </c>
@@ -8401,7 +8466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="36" t="s">
         <v>13</v>
       </c>
@@ -8424,7 +8489,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="26"/>
       <c r="B65" s="26"/>
       <c r="D65" s="26"/>
@@ -8432,37 +8497,37 @@
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="194" t="s">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="195"/>
+      <c r="B66" s="183"/>
       <c r="C66" s="66"/>
-      <c r="D66" s="194" t="s">
+      <c r="D66" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="195"/>
+      <c r="E66" s="183"/>
       <c r="F66" s="66"/>
-      <c r="G66" s="192" t="s">
+      <c r="G66" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="H66" s="193"/>
-    </row>
-    <row r="67" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="182" t="s">
+      <c r="H66" s="181"/>
+    </row>
+    <row r="67" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="183"/>
-      <c r="D67" s="182" t="s">
+      <c r="B67" s="172"/>
+      <c r="D67" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="E67" s="183"/>
-      <c r="G67" s="182" t="s">
+      <c r="E67" s="172"/>
+      <c r="G67" s="171" t="s">
         <v>89</v>
       </c>
-      <c r="H67" s="183"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="172"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>6</v>
       </c>
@@ -8482,7 +8547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>7</v>
       </c>
@@ -8505,7 +8570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>8</v>
       </c>
@@ -8528,7 +8593,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>9</v>
       </c>
@@ -8551,7 +8616,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>10</v>
       </c>
@@ -8574,7 +8639,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
         <v>11</v>
       </c>
@@ -8597,7 +8662,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="34" t="s">
         <v>12</v>
       </c>
@@ -8617,7 +8682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="36" t="s">
         <v>13</v>
       </c>
@@ -8640,28 +8705,28 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="192" t="s">
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="193"/>
+      <c r="B77" s="181"/>
       <c r="D77" s="34"/>
       <c r="E77" s="35"/>
       <c r="G77" s="34"/>
       <c r="H77" s="35"/>
     </row>
-    <row r="78" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="182" t="s">
+    <row r="78" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="183"/>
+      <c r="B78" s="172"/>
       <c r="D78" s="32"/>
       <c r="E78" s="33"/>
       <c r="G78" s="32"/>
       <c r="H78" s="33"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>6</v>
       </c>
@@ -8673,7 +8738,7 @@
       <c r="G79" s="32"/>
       <c r="H79" s="38"/>
     </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
         <v>7</v>
       </c>
@@ -8686,7 +8751,7 @@
       <c r="G80" s="32"/>
       <c r="H80" s="38"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>8</v>
       </c>
@@ -8694,16 +8759,16 @@
         <f>B80*2</f>
         <v>160</v>
       </c>
-      <c r="D81" s="170" t="s">
+      <c r="D81" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="171"/>
-      <c r="G81" s="170" t="s">
+      <c r="E81" s="174"/>
+      <c r="G81" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="171"/>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="174"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="32" t="s">
         <v>9</v>
       </c>
@@ -8711,12 +8776,12 @@
         <f>B81*2</f>
         <v>320</v>
       </c>
-      <c r="D82" s="172"/>
-      <c r="E82" s="173"/>
-      <c r="G82" s="172"/>
-      <c r="H82" s="173"/>
-    </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D82" s="175"/>
+      <c r="E82" s="176"/>
+      <c r="G82" s="175"/>
+      <c r="H82" s="176"/>
+    </row>
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
         <v>10</v>
       </c>
@@ -8724,16 +8789,16 @@
         <f>B82*1.5</f>
         <v>480</v>
       </c>
-      <c r="D83" s="174" t="s">
+      <c r="D83" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="E83" s="175"/>
-      <c r="G83" s="174" t="s">
+      <c r="E83" s="178"/>
+      <c r="G83" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="H83" s="175"/>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="178"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="32" t="s">
         <v>11</v>
       </c>
@@ -8741,32 +8806,32 @@
         <f>B83*1.5</f>
         <v>720</v>
       </c>
-      <c r="D84" s="169" t="s">
+      <c r="D84" s="179" t="s">
         <v>21</v>
       </c>
       <c r="E84" s="33"/>
-      <c r="G84" s="169" t="s">
+      <c r="G84" s="179" t="s">
         <v>21</v>
       </c>
       <c r="H84" s="33"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B85" s="35">
         <v>100</v>
       </c>
-      <c r="D85" s="169"/>
+      <c r="D85" s="179"/>
       <c r="E85" s="33">
         <v>40</v>
       </c>
-      <c r="G85" s="169"/>
+      <c r="G85" s="179"/>
       <c r="H85" s="33">
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="36" t="s">
         <v>13</v>
       </c>
@@ -8787,7 +8852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="34"/>
       <c r="B87" s="35"/>
       <c r="D87" s="34"/>
@@ -8795,7 +8860,7 @@
       <c r="G87" s="34"/>
       <c r="H87" s="35"/>
     </row>
-    <row r="88" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="33"/>
       <c r="D88" s="32"/>
@@ -8803,7 +8868,7 @@
       <c r="G88" s="32"/>
       <c r="H88" s="33"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="38"/>
       <c r="D89" s="32"/>
@@ -8811,7 +8876,7 @@
       <c r="G89" s="32"/>
       <c r="H89" s="38"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="32"/>
       <c r="B90" s="38"/>
       <c r="D90" s="32"/>
@@ -8819,71 +8884,71 @@
       <c r="G90" s="32"/>
       <c r="H90" s="38"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="170" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="B91" s="171"/>
-      <c r="D91" s="170" t="s">
+      <c r="B91" s="174"/>
+      <c r="D91" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="171"/>
-      <c r="G91" s="170" t="s">
+      <c r="E91" s="174"/>
+      <c r="G91" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="171"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="172"/>
-      <c r="B92" s="173"/>
-      <c r="D92" s="172"/>
-      <c r="E92" s="173"/>
-      <c r="G92" s="172"/>
-      <c r="H92" s="173"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="174" t="s">
+      <c r="H91" s="174"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="175"/>
+      <c r="B92" s="176"/>
+      <c r="D92" s="175"/>
+      <c r="E92" s="176"/>
+      <c r="G92" s="175"/>
+      <c r="H92" s="176"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="B93" s="175"/>
-      <c r="D93" s="174" t="s">
+      <c r="B93" s="178"/>
+      <c r="D93" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="175"/>
-      <c r="G93" s="174" t="s">
+      <c r="E93" s="178"/>
+      <c r="G93" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="H93" s="175"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="169" t="s">
+      <c r="H93" s="178"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="179" t="s">
         <v>21</v>
       </c>
       <c r="B94" s="33"/>
-      <c r="D94" s="169" t="s">
+      <c r="D94" s="179" t="s">
         <v>21</v>
       </c>
       <c r="E94" s="33"/>
-      <c r="G94" s="169" t="s">
+      <c r="G94" s="179" t="s">
         <v>21</v>
       </c>
       <c r="H94" s="33"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="169"/>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="179"/>
       <c r="B95" s="33">
         <v>50</v>
       </c>
-      <c r="D95" s="169"/>
+      <c r="D95" s="179"/>
       <c r="E95" s="33">
         <v>40</v>
       </c>
-      <c r="G95" s="169"/>
+      <c r="G95" s="179"/>
       <c r="H95" s="33">
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="39" t="s">
         <v>13</v>
       </c>
@@ -8903,78 +8968,78 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="34"/>
       <c r="B98" s="35"/>
       <c r="D98" s="34"/>
       <c r="E98" s="35"/>
     </row>
-    <row r="99" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="32"/>
       <c r="B99" s="33"/>
       <c r="D99" s="32"/>
       <c r="E99" s="33"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="32"/>
       <c r="B100" s="38"/>
       <c r="D100" s="32"/>
       <c r="E100" s="38"/>
     </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="32"/>
       <c r="B101" s="38"/>
-      <c r="D101" s="176" t="s">
+      <c r="D101" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="E101" s="177"/>
-    </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="170" t="s">
+      <c r="E101" s="197"/>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="171"/>
-      <c r="D102" s="176"/>
-      <c r="E102" s="177"/>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="172"/>
-      <c r="B103" s="173"/>
-      <c r="D103" s="172"/>
-      <c r="E103" s="173"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="174" t="s">
+      <c r="B102" s="174"/>
+      <c r="D102" s="196"/>
+      <c r="E102" s="197"/>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="175"/>
+      <c r="B103" s="176"/>
+      <c r="D103" s="175"/>
+      <c r="E103" s="176"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="B104" s="175"/>
-      <c r="D104" s="174" t="s">
+      <c r="B104" s="178"/>
+      <c r="D104" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="E104" s="175"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="169" t="s">
+      <c r="E104" s="178"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="179" t="s">
         <v>21</v>
       </c>
       <c r="B105" s="33"/>
-      <c r="D105" s="169" t="s">
+      <c r="D105" s="179" t="s">
         <v>21</v>
       </c>
       <c r="E105" s="33"/>
     </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="169"/>
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="179"/>
       <c r="B106" s="33">
         <v>60</v>
       </c>
-      <c r="D106" s="169"/>
+      <c r="D106" s="179"/>
       <c r="E106" s="33">
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="39" t="s">
         <v>13</v>
       </c>
@@ -8990,56 +9055,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D81:E82"/>
-    <mergeCell ref="G81:H82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
     <mergeCell ref="A105:A106"/>
     <mergeCell ref="D105:D106"/>
     <mergeCell ref="A91:B92"/>
@@ -9055,6 +9070,56 @@
     <mergeCell ref="A94:A95"/>
     <mergeCell ref="D94:D95"/>
     <mergeCell ref="G94:G95"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="D81:E82"/>
+    <mergeCell ref="G81:H82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="A55:B55"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9066,99 +9131,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3098BB4D-B654-4BC8-B6E1-F0FCD14FC8B5}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0" xr3:uid="{D6571E97-15A2-5A8A-90E0-6BD509DD1CC9}">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="193"/>
+      <c r="B1" s="181"/>
       <c r="C1" s="63"/>
-      <c r="D1" s="192" t="s">
+      <c r="D1" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="193"/>
+      <c r="E1" s="181"/>
       <c r="F1" s="63"/>
-      <c r="G1" s="192" t="s">
+      <c r="G1" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="193"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="202"/>
-      <c r="B2" s="203"/>
+      <c r="H1" s="181"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="198"/>
+      <c r="B2" s="199"/>
       <c r="C2" s="63"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="203"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="199"/>
       <c r="F2" s="63"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="203"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="198"/>
-      <c r="B3" s="199"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="199"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="200"/>
+      <c r="B3" s="201"/>
       <c r="C3" s="63"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="199"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="201"/>
       <c r="F3" s="63"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="199"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="198"/>
-      <c r="B4" s="199"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="201"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="200"/>
+      <c r="B4" s="201"/>
       <c r="C4" s="63"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="199"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
       <c r="F4" s="63"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="199"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="198"/>
-      <c r="B5" s="199"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="201"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="200"/>
+      <c r="B5" s="201"/>
       <c r="C5" s="63"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="201"/>
       <c r="F5" s="63"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="199"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="198"/>
-      <c r="B6" s="199"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="201"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="200"/>
+      <c r="B6" s="201"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="199"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="63"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="199"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="198"/>
-      <c r="B7" s="199"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="201"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="200"/>
+      <c r="B7" s="201"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="199"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="201"/>
       <c r="F7" s="63"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="200"/>
-      <c r="B8" s="201"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="201"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="202"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="201"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="203"/>
       <c r="F8" s="63"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="201"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="202"/>
+      <c r="H8" s="203"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="63"/>
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
@@ -9168,93 +9233,93 @@
       <c r="G9" s="63"/>
       <c r="H9" s="63"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="192" t="s">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="193"/>
+      <c r="B10" s="181"/>
       <c r="C10" s="63"/>
-      <c r="D10" s="192" t="s">
+      <c r="D10" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="193"/>
+      <c r="E10" s="181"/>
       <c r="F10" s="63"/>
-      <c r="G10" s="192" t="s">
+      <c r="G10" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="193"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="202"/>
-      <c r="B11" s="203"/>
+      <c r="H10" s="181"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="198"/>
+      <c r="B11" s="199"/>
       <c r="C11" s="63"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="203"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="199"/>
       <c r="F11" s="63"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="203"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="198"/>
-      <c r="B12" s="199"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="199"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="200"/>
+      <c r="B12" s="201"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="199"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="201"/>
       <c r="F12" s="63"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="199"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="198"/>
-      <c r="B13" s="199"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="201"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="200"/>
+      <c r="B13" s="201"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="199"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="201"/>
       <c r="F13" s="63"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="199"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="198"/>
-      <c r="B14" s="199"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="201"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="200"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="63"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="199"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="201"/>
       <c r="F14" s="63"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="199"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="198"/>
-      <c r="B15" s="199"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="201"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="200"/>
+      <c r="B15" s="201"/>
       <c r="C15" s="63"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="199"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="201"/>
       <c r="F15" s="63"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="199"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="198"/>
-      <c r="B16" s="199"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="201"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="200"/>
+      <c r="B16" s="201"/>
       <c r="C16" s="63"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="199"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="201"/>
       <c r="F16" s="63"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="199"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="200"/>
-      <c r="B17" s="201"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="201"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="202"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="201"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="203"/>
       <c r="F17" s="63"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="201"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="202"/>
+      <c r="H17" s="203"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="64"/>
       <c r="B18" s="64"/>
       <c r="C18" s="64"/>
@@ -9264,23 +9329,23 @@
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="188" t="s">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="189"/>
+      <c r="B19" s="187"/>
       <c r="C19" s="64"/>
-      <c r="D19" s="188" t="s">
+      <c r="D19" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="189"/>
+      <c r="E19" s="187"/>
       <c r="F19" s="64"/>
-      <c r="G19" s="188" t="s">
+      <c r="G19" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="189"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="187"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="58"/>
       <c r="C20" s="64"/>
@@ -9290,7 +9355,7 @@
       <c r="G20" s="57"/>
       <c r="H20" s="58"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
       <c r="B21" s="60"/>
       <c r="C21" s="64"/>
@@ -9300,7 +9365,7 @@
       <c r="G21" s="59"/>
       <c r="H21" s="60"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="59"/>
       <c r="B22" s="60"/>
       <c r="C22" s="64"/>
@@ -9310,7 +9375,7 @@
       <c r="G22" s="59"/>
       <c r="H22" s="60"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
       <c r="B23" s="60"/>
       <c r="C23" s="64"/>
@@ -9320,7 +9385,7 @@
       <c r="G23" s="59"/>
       <c r="H23" s="60"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="59"/>
       <c r="B24" s="60"/>
       <c r="C24" s="64"/>
@@ -9330,7 +9395,7 @@
       <c r="G24" s="59"/>
       <c r="H24" s="60"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="59"/>
       <c r="B25" s="60"/>
       <c r="C25" s="64"/>
@@ -9340,7 +9405,7 @@
       <c r="G25" s="59"/>
       <c r="H25" s="60"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="61"/>
       <c r="B26" s="62"/>
       <c r="C26" s="64"/>
@@ -9350,7 +9415,7 @@
       <c r="G26" s="61"/>
       <c r="H26" s="62"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -9360,23 +9425,23 @@
       <c r="G27" s="64"/>
       <c r="H27" s="64"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="188" t="s">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="189"/>
+      <c r="B28" s="187"/>
       <c r="C28" s="64"/>
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="189"/>
+      <c r="E28" s="187"/>
       <c r="F28" s="64"/>
-      <c r="G28" s="188" t="s">
+      <c r="G28" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="189"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="187"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="58"/>
       <c r="C29" s="64"/>
@@ -9386,7 +9451,7 @@
       <c r="G29" s="57"/>
       <c r="H29" s="58"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
       <c r="B30" s="60"/>
       <c r="C30" s="64"/>
@@ -9396,7 +9461,7 @@
       <c r="G30" s="59"/>
       <c r="H30" s="60"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
       <c r="B31" s="60"/>
       <c r="C31" s="64"/>
@@ -9406,7 +9471,7 @@
       <c r="G31" s="59"/>
       <c r="H31" s="60"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
       <c r="B32" s="60"/>
       <c r="C32" s="64"/>
@@ -9416,7 +9481,7 @@
       <c r="G32" s="59"/>
       <c r="H32" s="60"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
       <c r="B33" s="60"/>
       <c r="C33" s="64"/>
@@ -9426,7 +9491,7 @@
       <c r="G33" s="59"/>
       <c r="H33" s="60"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
       <c r="B34" s="60"/>
       <c r="C34" s="64"/>
@@ -9436,7 +9501,7 @@
       <c r="G34" s="59"/>
       <c r="H34" s="60"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="61"/>
       <c r="B35" s="62"/>
       <c r="C35" s="64"/>
@@ -9448,6 +9513,28 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A14:B15"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H4"/>
@@ -9462,28 +9549,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="A5:B6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9495,112 +9560,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841578E3-FD42-407D-8A16-3D5DFBCEDAD3}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{A193F660-2823-5950-A7E0-0CA6BC55084E}">
+    <sheetView workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="193"/>
+      <c r="B1" s="181"/>
       <c r="C1" s="67"/>
-      <c r="D1" s="192" t="s">
+      <c r="D1" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="193"/>
+      <c r="E1" s="181"/>
       <c r="F1" s="67"/>
-      <c r="G1" s="192" t="s">
+      <c r="G1" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="193"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="170" t="s">
+      <c r="H1" s="181"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="D2" s="170" t="s">
+      <c r="B2" s="174"/>
+      <c r="D2" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="171"/>
-      <c r="G2" s="170" t="s">
+      <c r="E2" s="174"/>
+      <c r="G2" s="173" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="171"/>
-    </row>
-    <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="176"/>
-      <c r="B3" s="177"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="177"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="177"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="176"/>
-      <c r="B4" s="177"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="177"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="176"/>
-      <c r="B5" s="177"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="177"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="177"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="176"/>
-      <c r="B6" s="177"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="177"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="176"/>
-      <c r="B7" s="177"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="177"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="176"/>
-      <c r="B8" s="177"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="176"/>
-      <c r="B9" s="177"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="177"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="177"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="172"/>
-      <c r="B10" s="173"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="173"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="173"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="192" t="s">
+      <c r="H2" s="174"/>
+    </row>
+    <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="196"/>
+      <c r="B3" s="197"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="197"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="196"/>
+      <c r="B4" s="197"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="197"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="197"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="196"/>
+      <c r="B5" s="197"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="197"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="197"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="196"/>
+      <c r="B6" s="197"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="197"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="196"/>
+      <c r="B7" s="197"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="197"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="197"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="197"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="175"/>
+      <c r="B10" s="176"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="176"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="176"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="193"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="67"/>
       <c r="D12" s="204" t="s">
         <v>27</v>
@@ -9612,180 +9677,180 @@
       </c>
       <c r="H12" s="205"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="170" t="s">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="171"/>
-      <c r="D13" s="170" t="s">
+      <c r="B13" s="174"/>
+      <c r="D13" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="171"/>
-      <c r="G13" s="170" t="s">
+      <c r="E13" s="174"/>
+      <c r="G13" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="171"/>
-    </row>
-    <row r="14" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="176"/>
-      <c r="B14" s="177"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="177"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="177"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="176"/>
-      <c r="B15" s="177"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="177"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="177"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="176"/>
-      <c r="B16" s="177"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="177"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="177"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="176"/>
-      <c r="B17" s="177"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="177"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="177"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="176"/>
-      <c r="B18" s="177"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="177"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="177"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="176"/>
-      <c r="B19" s="177"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="177"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="177"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="176"/>
-      <c r="B20" s="177"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="177"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="177"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="172"/>
-      <c r="B21" s="173"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="173"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="173"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="192" t="s">
+      <c r="H13" s="174"/>
+    </row>
+    <row r="14" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="196"/>
+      <c r="B14" s="197"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="197"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="197"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="196"/>
+      <c r="B15" s="197"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="197"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="196"/>
+      <c r="B16" s="197"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="197"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="196"/>
+      <c r="B17" s="197"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="197"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="196"/>
+      <c r="B18" s="197"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="197"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="196"/>
+      <c r="B19" s="197"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="197"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="196"/>
+      <c r="B20" s="197"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="197"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="197"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="175"/>
+      <c r="B21" s="176"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="176"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="176"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="193"/>
+      <c r="B23" s="181"/>
       <c r="C23" s="67"/>
-      <c r="D23" s="192" t="s">
+      <c r="D23" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="193"/>
+      <c r="E23" s="181"/>
       <c r="F23" s="67"/>
-      <c r="G23" s="192" t="s">
+      <c r="G23" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="193"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="170" t="s">
+      <c r="H23" s="181"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="171"/>
-      <c r="D24" s="170" t="s">
+      <c r="B24" s="174"/>
+      <c r="D24" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="171"/>
-      <c r="G24" s="170" t="s">
+      <c r="E24" s="174"/>
+      <c r="G24" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="171"/>
-    </row>
-    <row r="25" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="176"/>
-      <c r="B25" s="177"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="177"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="177"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="176"/>
-      <c r="B26" s="177"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="177"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="177"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="177"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="177"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="176"/>
-      <c r="B28" s="177"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="177"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="177"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="176"/>
-      <c r="B29" s="177"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="177"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="177"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="176"/>
-      <c r="B30" s="177"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="177"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="177"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="176"/>
-      <c r="B31" s="177"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="177"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="177"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="172"/>
-      <c r="B32" s="173"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="173"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="173"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="174"/>
+    </row>
+    <row r="25" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="196"/>
+      <c r="B25" s="197"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="197"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="197"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="196"/>
+      <c r="B26" s="197"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="197"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="197"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="196"/>
+      <c r="B27" s="197"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="197"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="197"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="196"/>
+      <c r="B28" s="197"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="197"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="196"/>
+      <c r="B29" s="197"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="197"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="197"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="196"/>
+      <c r="B30" s="197"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="197"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="197"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="196"/>
+      <c r="B31" s="197"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="197"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="197"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="175"/>
+      <c r="B32" s="176"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="176"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="176"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="D33" s="65"/>
@@ -9793,11 +9858,11 @@
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="192" t="s">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="193"/>
+      <c r="B34" s="181"/>
       <c r="C34" s="67"/>
       <c r="D34" s="204" t="s">
         <v>27</v>
@@ -9809,185 +9874,185 @@
       </c>
       <c r="H34" s="205"/>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="170" t="s">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="171"/>
-      <c r="D35" s="176" t="s">
+      <c r="B35" s="174"/>
+      <c r="D35" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="177"/>
-      <c r="G35" s="170" t="s">
+      <c r="E35" s="197"/>
+      <c r="G35" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="171"/>
-    </row>
-    <row r="36" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
-      <c r="B36" s="177"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="177"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="177"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="176"/>
-      <c r="B37" s="177"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="177"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="177"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="176"/>
-      <c r="B38" s="177"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="177"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="177"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="177"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="177"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="177"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="176"/>
-      <c r="B40" s="177"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="177"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="177"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="176"/>
-      <c r="B41" s="177"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="177"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="177"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="176"/>
-      <c r="B42" s="177"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="177"/>
-      <c r="G42" s="176"/>
-      <c r="H42" s="177"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="172"/>
-      <c r="B43" s="173"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="173"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="173"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="192" t="s">
+      <c r="H35" s="174"/>
+    </row>
+    <row r="36" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="196"/>
+      <c r="B36" s="197"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="197"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="197"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="196"/>
+      <c r="B37" s="197"/>
+      <c r="D37" s="196"/>
+      <c r="E37" s="197"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="197"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="196"/>
+      <c r="B38" s="197"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="197"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="197"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="196"/>
+      <c r="B39" s="197"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="197"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="197"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="196"/>
+      <c r="B40" s="197"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="197"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="197"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="196"/>
+      <c r="B41" s="197"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="197"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="197"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="196"/>
+      <c r="B42" s="197"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="197"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="197"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="175"/>
+      <c r="B43" s="176"/>
+      <c r="D43" s="175"/>
+      <c r="E43" s="176"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="176"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="193"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="67"/>
-      <c r="D45" s="192" t="s">
+      <c r="D45" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="193"/>
+      <c r="E45" s="181"/>
       <c r="F45" s="67"/>
-      <c r="G45" s="192" t="s">
+      <c r="G45" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="193"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="170" t="s">
+      <c r="H45" s="181"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="171"/>
-      <c r="D46" s="170" t="s">
+      <c r="B46" s="174"/>
+      <c r="D46" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="171"/>
-      <c r="G46" s="170" t="s">
+      <c r="E46" s="174"/>
+      <c r="G46" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="H46" s="171"/>
-    </row>
-    <row r="47" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="176"/>
-      <c r="B47" s="177"/>
-      <c r="D47" s="176"/>
-      <c r="E47" s="177"/>
-      <c r="G47" s="176"/>
-      <c r="H47" s="177"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="176"/>
-      <c r="B48" s="177"/>
-      <c r="D48" s="176"/>
-      <c r="E48" s="177"/>
-      <c r="G48" s="176"/>
-      <c r="H48" s="177"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="176"/>
-      <c r="B49" s="177"/>
-      <c r="D49" s="176"/>
-      <c r="E49" s="177"/>
-      <c r="G49" s="176"/>
-      <c r="H49" s="177"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="176"/>
-      <c r="B50" s="177"/>
-      <c r="D50" s="176"/>
-      <c r="E50" s="177"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="177"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="176"/>
-      <c r="B51" s="177"/>
-      <c r="D51" s="176"/>
-      <c r="E51" s="177"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="177"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="176"/>
-      <c r="B52" s="177"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="177"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="177"/>
-    </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="176"/>
-      <c r="B53" s="177"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="177"/>
-      <c r="G53" s="176"/>
-      <c r="H53" s="177"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="172"/>
-      <c r="B54" s="173"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="173"/>
-      <c r="G54" s="172"/>
-      <c r="H54" s="173"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="192" t="s">
+      <c r="H46" s="174"/>
+    </row>
+    <row r="47" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="196"/>
+      <c r="B47" s="197"/>
+      <c r="D47" s="196"/>
+      <c r="E47" s="197"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="197"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="196"/>
+      <c r="B48" s="197"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="197"/>
+      <c r="G48" s="196"/>
+      <c r="H48" s="197"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="196"/>
+      <c r="B49" s="197"/>
+      <c r="D49" s="196"/>
+      <c r="E49" s="197"/>
+      <c r="G49" s="196"/>
+      <c r="H49" s="197"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="196"/>
+      <c r="B50" s="197"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="197"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="197"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="196"/>
+      <c r="B51" s="197"/>
+      <c r="D51" s="196"/>
+      <c r="E51" s="197"/>
+      <c r="G51" s="196"/>
+      <c r="H51" s="197"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="196"/>
+      <c r="B52" s="197"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="197"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="197"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="196"/>
+      <c r="B53" s="197"/>
+      <c r="D53" s="196"/>
+      <c r="E53" s="197"/>
+      <c r="G53" s="196"/>
+      <c r="H53" s="197"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="175"/>
+      <c r="B54" s="176"/>
+      <c r="D54" s="175"/>
+      <c r="E54" s="176"/>
+      <c r="G54" s="175"/>
+      <c r="H54" s="176"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="193"/>
+      <c r="B56" s="181"/>
       <c r="C56" s="67"/>
       <c r="D56" s="204" t="s">
         <v>27</v>
@@ -9999,86 +10064,107 @@
       </c>
       <c r="H56" s="205"/>
     </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="170" t="s">
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="171"/>
-      <c r="D57" s="176" t="s">
+      <c r="B57" s="174"/>
+      <c r="D57" s="196" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="177"/>
-      <c r="G57" s="170" t="s">
+      <c r="E57" s="197"/>
+      <c r="G57" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="H57" s="171"/>
-    </row>
-    <row r="58" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="176"/>
-      <c r="B58" s="177"/>
-      <c r="D58" s="176"/>
-      <c r="E58" s="177"/>
-      <c r="G58" s="176"/>
-      <c r="H58" s="177"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="176"/>
-      <c r="B59" s="177"/>
-      <c r="D59" s="176"/>
-      <c r="E59" s="177"/>
-      <c r="G59" s="176"/>
-      <c r="H59" s="177"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="176"/>
-      <c r="B60" s="177"/>
-      <c r="D60" s="176"/>
-      <c r="E60" s="177"/>
-      <c r="G60" s="176"/>
-      <c r="H60" s="177"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="176"/>
-      <c r="B61" s="177"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="177"/>
-      <c r="G61" s="176"/>
-      <c r="H61" s="177"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="176"/>
-      <c r="B62" s="177"/>
-      <c r="D62" s="176"/>
-      <c r="E62" s="177"/>
-      <c r="G62" s="176"/>
-      <c r="H62" s="177"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="176"/>
-      <c r="B63" s="177"/>
-      <c r="D63" s="176"/>
-      <c r="E63" s="177"/>
-      <c r="G63" s="176"/>
-      <c r="H63" s="177"/>
-    </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="176"/>
-      <c r="B64" s="177"/>
-      <c r="D64" s="176"/>
-      <c r="E64" s="177"/>
-      <c r="G64" s="176"/>
-      <c r="H64" s="177"/>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="172"/>
-      <c r="B65" s="173"/>
-      <c r="D65" s="172"/>
-      <c r="E65" s="173"/>
-      <c r="G65" s="172"/>
-      <c r="H65" s="173"/>
+      <c r="H57" s="174"/>
+    </row>
+    <row r="58" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="196"/>
+      <c r="B58" s="197"/>
+      <c r="D58" s="196"/>
+      <c r="E58" s="197"/>
+      <c r="G58" s="196"/>
+      <c r="H58" s="197"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="196"/>
+      <c r="B59" s="197"/>
+      <c r="D59" s="196"/>
+      <c r="E59" s="197"/>
+      <c r="G59" s="196"/>
+      <c r="H59" s="197"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="196"/>
+      <c r="B60" s="197"/>
+      <c r="D60" s="196"/>
+      <c r="E60" s="197"/>
+      <c r="G60" s="196"/>
+      <c r="H60" s="197"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="196"/>
+      <c r="B61" s="197"/>
+      <c r="D61" s="196"/>
+      <c r="E61" s="197"/>
+      <c r="G61" s="196"/>
+      <c r="H61" s="197"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="196"/>
+      <c r="B62" s="197"/>
+      <c r="D62" s="196"/>
+      <c r="E62" s="197"/>
+      <c r="G62" s="196"/>
+      <c r="H62" s="197"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="196"/>
+      <c r="B63" s="197"/>
+      <c r="D63" s="196"/>
+      <c r="E63" s="197"/>
+      <c r="G63" s="196"/>
+      <c r="H63" s="197"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="196"/>
+      <c r="B64" s="197"/>
+      <c r="D64" s="196"/>
+      <c r="E64" s="197"/>
+      <c r="G64" s="196"/>
+      <c r="H64" s="197"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="175"/>
+      <c r="B65" s="176"/>
+      <c r="D65" s="175"/>
+      <c r="E65" s="176"/>
+      <c r="G65" s="175"/>
+      <c r="H65" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="D13:E21"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G13:H19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="D57:E65"/>
     <mergeCell ref="G57:H65"/>
     <mergeCell ref="G2:H10"/>
@@ -10095,27 +10181,6 @@
     <mergeCell ref="D46:E54"/>
     <mergeCell ref="G46:H54"/>
     <mergeCell ref="A57:B65"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="D13:E21"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G13:H19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10126,202 +10191,202 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED732DA-219E-43C7-8DB3-0FD66F902101}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0" xr3:uid="{6C19F08A-E031-54CC-BCDB-39AC3AF1E510}">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D13" sqref="D13:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="188" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="189"/>
+      <c r="B1" s="187"/>
       <c r="C1" s="66"/>
       <c r="D1" s="206" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="207"/>
       <c r="F1" s="66"/>
-      <c r="G1" s="188" t="s">
+      <c r="G1" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="189"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="170" t="s">
+      <c r="H1" s="187"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="173" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="D2" s="170" t="s">
+      <c r="B2" s="174"/>
+      <c r="D2" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="171"/>
-      <c r="G2" s="170" t="s">
+      <c r="E2" s="174"/>
+      <c r="G2" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="171"/>
-    </row>
-    <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="176"/>
-      <c r="B3" s="177"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="177"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="177"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="176"/>
-      <c r="B4" s="177"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="177"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="176"/>
-      <c r="B5" s="177"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="177"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="177"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="176"/>
-      <c r="B6" s="177"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="177"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="176"/>
-      <c r="B7" s="177"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="177"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="176"/>
-      <c r="B8" s="177"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="176"/>
-      <c r="B9" s="177"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="177"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="177"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="172"/>
-      <c r="B10" s="173"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="173"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="173"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="188" t="s">
+      <c r="H2" s="174"/>
+    </row>
+    <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="196"/>
+      <c r="B3" s="197"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="197"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="196"/>
+      <c r="B4" s="197"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="197"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="197"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="196"/>
+      <c r="B5" s="197"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="197"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="197"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="196"/>
+      <c r="B6" s="197"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="197"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="196"/>
+      <c r="B7" s="197"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="197"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="197"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="197"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="175"/>
+      <c r="B10" s="176"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="176"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="176"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="189"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="66"/>
-      <c r="D12" s="188" t="s">
+      <c r="D12" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="189"/>
+      <c r="E12" s="187"/>
       <c r="F12" s="66"/>
-      <c r="G12" s="188" t="s">
+      <c r="G12" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="189"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="170" t="s">
+      <c r="H12" s="187"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="173" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="171"/>
-      <c r="D13" s="170" t="s">
+      <c r="B13" s="174"/>
+      <c r="D13" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="171"/>
-      <c r="G13" s="170" t="s">
+      <c r="E13" s="174"/>
+      <c r="G13" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="171"/>
-    </row>
-    <row r="14" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="176"/>
-      <c r="B14" s="177"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="177"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="177"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="176"/>
-      <c r="B15" s="177"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="177"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="177"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="176"/>
-      <c r="B16" s="177"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="177"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="177"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="176"/>
-      <c r="B17" s="177"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="177"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="177"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="176"/>
-      <c r="B18" s="177"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="177"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="177"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="176"/>
-      <c r="B19" s="177"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="177"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="177"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="176"/>
-      <c r="B20" s="177"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="177"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="177"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="172"/>
-      <c r="B21" s="173"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="173"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="173"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="174"/>
+    </row>
+    <row r="14" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="196"/>
+      <c r="B14" s="197"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="197"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="197"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="196"/>
+      <c r="B15" s="197"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="197"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="196"/>
+      <c r="B16" s="197"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="197"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="196"/>
+      <c r="B17" s="197"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="197"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="196"/>
+      <c r="B18" s="197"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="197"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="196"/>
+      <c r="B19" s="197"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="197"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="196"/>
+      <c r="B20" s="197"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="197"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="197"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="175"/>
+      <c r="B21" s="176"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="176"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="176"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="65"/>
       <c r="B22" s="65"/>
       <c r="D22" s="65"/>
@@ -10329,101 +10394,101 @@
       <c r="G22" s="65"/>
       <c r="H22" s="65"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="188" t="s">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="189"/>
+      <c r="B23" s="187"/>
       <c r="C23" s="67"/>
-      <c r="D23" s="188" t="s">
+      <c r="D23" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="189"/>
+      <c r="E23" s="187"/>
       <c r="F23" s="67"/>
-      <c r="G23" s="188" t="s">
+      <c r="G23" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="189"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="170" t="s">
+      <c r="H23" s="187"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="171"/>
-      <c r="D24" s="170" t="s">
+      <c r="B24" s="174"/>
+      <c r="D24" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="171"/>
-      <c r="G24" s="170" t="s">
+      <c r="E24" s="174"/>
+      <c r="G24" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="171"/>
-    </row>
-    <row r="25" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="176"/>
-      <c r="B25" s="177"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="177"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="177"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="176"/>
-      <c r="B26" s="177"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="177"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="177"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="177"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="177"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="176"/>
-      <c r="B28" s="177"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="177"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="177"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="176"/>
-      <c r="B29" s="177"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="177"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="177"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="176"/>
-      <c r="B30" s="177"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="177"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="177"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="176"/>
-      <c r="B31" s="177"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="177"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="177"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="172"/>
-      <c r="B32" s="173"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="173"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="173"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="174"/>
+    </row>
+    <row r="25" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="196"/>
+      <c r="B25" s="197"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="197"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="197"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="196"/>
+      <c r="B26" s="197"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="197"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="197"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="196"/>
+      <c r="B27" s="197"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="197"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="197"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="196"/>
+      <c r="B28" s="197"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="197"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="196"/>
+      <c r="B29" s="197"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="197"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="197"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="196"/>
+      <c r="B30" s="197"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="197"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="197"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="196"/>
+      <c r="B31" s="197"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="197"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="197"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="175"/>
+      <c r="B32" s="176"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="176"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="176"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="D33" s="65"/>
@@ -10431,101 +10496,101 @@
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="188" t="s">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="189"/>
+      <c r="B34" s="187"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="188" t="s">
+      <c r="D34" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="189"/>
+      <c r="E34" s="187"/>
       <c r="F34" s="66"/>
-      <c r="G34" s="188" t="s">
+      <c r="G34" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="189"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="170" t="s">
+      <c r="H34" s="187"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="171"/>
-      <c r="D35" s="170" t="s">
+      <c r="B35" s="174"/>
+      <c r="D35" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="171"/>
-      <c r="G35" s="170" t="s">
+      <c r="E35" s="174"/>
+      <c r="G35" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="171"/>
-    </row>
-    <row r="36" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
-      <c r="B36" s="177"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="177"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="177"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="176"/>
-      <c r="B37" s="177"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="177"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="177"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="176"/>
-      <c r="B38" s="177"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="177"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="177"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="177"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="177"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="177"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="176"/>
-      <c r="B40" s="177"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="177"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="177"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="176"/>
-      <c r="B41" s="177"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="177"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="177"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="176"/>
-      <c r="B42" s="177"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="177"/>
-      <c r="G42" s="176"/>
-      <c r="H42" s="177"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="172"/>
-      <c r="B43" s="173"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="173"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="173"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="174"/>
+    </row>
+    <row r="36" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="196"/>
+      <c r="B36" s="197"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="197"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="197"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="196"/>
+      <c r="B37" s="197"/>
+      <c r="D37" s="196"/>
+      <c r="E37" s="197"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="197"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="196"/>
+      <c r="B38" s="197"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="197"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="197"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="196"/>
+      <c r="B39" s="197"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="197"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="197"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="196"/>
+      <c r="B40" s="197"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="197"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="197"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="196"/>
+      <c r="B41" s="197"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="197"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="197"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="196"/>
+      <c r="B42" s="197"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="197"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="197"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="175"/>
+      <c r="B43" s="176"/>
+      <c r="D43" s="175"/>
+      <c r="E43" s="176"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="176"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="65"/>
       <c r="B44" s="65"/>
       <c r="D44" s="65"/>
@@ -10533,7 +10598,7 @@
       <c r="G44" s="65"/>
       <c r="H44" s="65"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="65"/>
       <c r="B45" s="65"/>
       <c r="D45" s="65"/>
@@ -10541,195 +10606,216 @@
       <c r="G45" s="65"/>
       <c r="H45" s="65"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="188" t="s">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="189"/>
+      <c r="B46" s="187"/>
       <c r="C46" s="67"/>
-      <c r="D46" s="188" t="s">
+      <c r="D46" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="189"/>
+      <c r="E46" s="187"/>
       <c r="F46" s="67"/>
-      <c r="G46" s="188" t="s">
+      <c r="G46" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="189"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="170" t="s">
+      <c r="H46" s="187"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="171"/>
-      <c r="D47" s="170" t="s">
+      <c r="B47" s="174"/>
+      <c r="D47" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="171"/>
-      <c r="G47" s="170" t="s">
+      <c r="E47" s="174"/>
+      <c r="G47" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="171"/>
-    </row>
-    <row r="48" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="176"/>
-      <c r="B48" s="177"/>
-      <c r="D48" s="176"/>
-      <c r="E48" s="177"/>
-      <c r="G48" s="176"/>
-      <c r="H48" s="177"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="176"/>
-      <c r="B49" s="177"/>
-      <c r="D49" s="176"/>
-      <c r="E49" s="177"/>
-      <c r="G49" s="176"/>
-      <c r="H49" s="177"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="176"/>
-      <c r="B50" s="177"/>
-      <c r="D50" s="176"/>
-      <c r="E50" s="177"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="177"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="176"/>
-      <c r="B51" s="177"/>
-      <c r="D51" s="176"/>
-      <c r="E51" s="177"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="177"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="176"/>
-      <c r="B52" s="177"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="177"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="177"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="176"/>
-      <c r="B53" s="177"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="177"/>
-      <c r="G53" s="176"/>
-      <c r="H53" s="177"/>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="176"/>
-      <c r="B54" s="177"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="177"/>
-      <c r="G54" s="176"/>
-      <c r="H54" s="177"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="172"/>
-      <c r="B55" s="173"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="173"/>
-      <c r="G55" s="172"/>
-      <c r="H55" s="173"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="188" t="s">
+      <c r="H47" s="174"/>
+    </row>
+    <row r="48" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="196"/>
+      <c r="B48" s="197"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="197"/>
+      <c r="G48" s="196"/>
+      <c r="H48" s="197"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="196"/>
+      <c r="B49" s="197"/>
+      <c r="D49" s="196"/>
+      <c r="E49" s="197"/>
+      <c r="G49" s="196"/>
+      <c r="H49" s="197"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="196"/>
+      <c r="B50" s="197"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="197"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="197"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="196"/>
+      <c r="B51" s="197"/>
+      <c r="D51" s="196"/>
+      <c r="E51" s="197"/>
+      <c r="G51" s="196"/>
+      <c r="H51" s="197"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="196"/>
+      <c r="B52" s="197"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="197"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="197"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="196"/>
+      <c r="B53" s="197"/>
+      <c r="D53" s="196"/>
+      <c r="E53" s="197"/>
+      <c r="G53" s="196"/>
+      <c r="H53" s="197"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="196"/>
+      <c r="B54" s="197"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="197"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="197"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="175"/>
+      <c r="B55" s="176"/>
+      <c r="D55" s="175"/>
+      <c r="E55" s="176"/>
+      <c r="G55" s="175"/>
+      <c r="H55" s="176"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="189"/>
-      <c r="D57" s="188" t="s">
+      <c r="B57" s="187"/>
+      <c r="D57" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="189"/>
-      <c r="G57" s="188" t="s">
+      <c r="E57" s="187"/>
+      <c r="G57" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="H57" s="189"/>
-    </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="170" t="s">
+      <c r="H57" s="187"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="171"/>
-      <c r="D58" s="170" t="s">
+      <c r="B58" s="174"/>
+      <c r="D58" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="171"/>
-      <c r="G58" s="170" t="s">
+      <c r="E58" s="174"/>
+      <c r="G58" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="H58" s="171"/>
-    </row>
-    <row r="59" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="176"/>
-      <c r="B59" s="177"/>
-      <c r="D59" s="176"/>
-      <c r="E59" s="177"/>
-      <c r="G59" s="176"/>
-      <c r="H59" s="177"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="176"/>
-      <c r="B60" s="177"/>
-      <c r="D60" s="176"/>
-      <c r="E60" s="177"/>
-      <c r="G60" s="176"/>
-      <c r="H60" s="177"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="176"/>
-      <c r="B61" s="177"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="177"/>
-      <c r="G61" s="176"/>
-      <c r="H61" s="177"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="176"/>
-      <c r="B62" s="177"/>
-      <c r="D62" s="176"/>
-      <c r="E62" s="177"/>
-      <c r="G62" s="176"/>
-      <c r="H62" s="177"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="176"/>
-      <c r="B63" s="177"/>
-      <c r="D63" s="176"/>
-      <c r="E63" s="177"/>
-      <c r="G63" s="176"/>
-      <c r="H63" s="177"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="176"/>
-      <c r="B64" s="177"/>
-      <c r="D64" s="176"/>
-      <c r="E64" s="177"/>
-      <c r="G64" s="176"/>
-      <c r="H64" s="177"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="176"/>
-      <c r="B65" s="177"/>
-      <c r="D65" s="176"/>
-      <c r="E65" s="177"/>
-      <c r="G65" s="176"/>
-      <c r="H65" s="177"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="172"/>
-      <c r="B66" s="173"/>
-      <c r="D66" s="172"/>
-      <c r="E66" s="173"/>
-      <c r="G66" s="172"/>
-      <c r="H66" s="173"/>
+      <c r="H58" s="174"/>
+    </row>
+    <row r="59" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="196"/>
+      <c r="B59" s="197"/>
+      <c r="D59" s="196"/>
+      <c r="E59" s="197"/>
+      <c r="G59" s="196"/>
+      <c r="H59" s="197"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="196"/>
+      <c r="B60" s="197"/>
+      <c r="D60" s="196"/>
+      <c r="E60" s="197"/>
+      <c r="G60" s="196"/>
+      <c r="H60" s="197"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="196"/>
+      <c r="B61" s="197"/>
+      <c r="D61" s="196"/>
+      <c r="E61" s="197"/>
+      <c r="G61" s="196"/>
+      <c r="H61" s="197"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="196"/>
+      <c r="B62" s="197"/>
+      <c r="D62" s="196"/>
+      <c r="E62" s="197"/>
+      <c r="G62" s="196"/>
+      <c r="H62" s="197"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="196"/>
+      <c r="B63" s="197"/>
+      <c r="D63" s="196"/>
+      <c r="E63" s="197"/>
+      <c r="G63" s="196"/>
+      <c r="H63" s="197"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="196"/>
+      <c r="B64" s="197"/>
+      <c r="D64" s="196"/>
+      <c r="E64" s="197"/>
+      <c r="G64" s="196"/>
+      <c r="H64" s="197"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="196"/>
+      <c r="B65" s="197"/>
+      <c r="D65" s="196"/>
+      <c r="E65" s="197"/>
+      <c r="G65" s="196"/>
+      <c r="H65" s="197"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="175"/>
+      <c r="B66" s="176"/>
+      <c r="D66" s="175"/>
+      <c r="E66" s="176"/>
+      <c r="G66" s="175"/>
+      <c r="H66" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A47:B55"/>
+    <mergeCell ref="D47:E55"/>
+    <mergeCell ref="G47:H55"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G13:H21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A35:B43"/>
+    <mergeCell ref="D35:E43"/>
+    <mergeCell ref="G35:H43"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E8"/>
+    <mergeCell ref="D9:E10"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E66"/>
     <mergeCell ref="G57:H57"/>
@@ -10746,27 +10832,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="D13:E21"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="G13:H21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A35:B43"/>
-    <mergeCell ref="D35:E43"/>
-    <mergeCell ref="G35:H43"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A47:B55"/>
-    <mergeCell ref="D47:E55"/>
-    <mergeCell ref="G47:H55"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
